--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C99F6-6B70-4605-86D2-C7D62F1292D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A29C2E-8A7B-434F-9066-77DD6515100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Предметы</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>БД курсач</t>
+  </si>
+  <si>
+    <t>Зачет</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,18 +196,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -250,16 +261,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,7 +598,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,23 +675,17 @@
       <c r="V1" s="6">
         <v>21</v>
       </c>
-      <c r="W1" s="6">
-        <v>22</v>
-      </c>
-      <c r="X1" s="6">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="6">
-        <v>24</v>
-      </c>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="28"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -675,7 +693,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -685,18 +703,18 @@
       <c r="S2" s="19"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>1</v>
       </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="26"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -707,8 +725,8 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="8"/>
@@ -744,21 +762,22 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="28"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="K5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -777,7 +796,9 @@
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -795,7 +816,9 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -842,7 +865,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A29C2E-8A7B-434F-9066-77DD6515100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5757F-F161-40E3-B206-59B30BACAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -279,6 +285,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +607,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +692,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5757F-F161-40E3-B206-59B30BACAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC602E-95CD-439E-915B-AA5DC2C17AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,17 +211,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,9 +240,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,9 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,13 +271,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +281,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +618,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,15 +695,15 @@
       <c r="V1" s="6">
         <v>21</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -702,28 +713,28 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="19"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="26"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -734,8 +745,8 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="8"/>
@@ -746,23 +757,23 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="9"/>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="K4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -770,23 +781,22 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="21"/>
+      <c r="J5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -794,20 +804,21 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -815,21 +826,18 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="30" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -843,13 +851,13 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
@@ -872,10 +880,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="29"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC602E-95CD-439E-915B-AA5DC2C17AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145340E7-FDF2-4047-B060-A2B26788E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="1236" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -255,9 +255,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,9 +298,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,9 +325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,7 +624,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,15 +701,15 @@
       <c r="V1" s="6">
         <v>21</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -720,21 +726,21 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="21"/>
+      <c r="Y2" s="20"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -746,7 +752,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="8"/>
@@ -759,7 +765,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9"/>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -768,12 +774,12 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="29"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -784,7 +790,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -795,8 +801,8 @@
       <c r="J5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -807,14 +813,14 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -829,13 +835,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -851,13 +857,13 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
@@ -876,14 +882,14 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145340E7-FDF2-4047-B060-A2B26788E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CEA1F-CD6B-4F74-B3AB-43259A124475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,11 +217,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -271,9 +284,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +315,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +644,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +729,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -737,49 +757,49 @@
       <c r="Y2" s="20"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="19"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="17" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="28"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -787,22 +807,24 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="18"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -813,14 +835,14 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -835,13 +857,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -857,7 +879,7 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -886,10 +908,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3курс\3-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CEA1F-CD6B-4F74-B3AB-43259A124475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE2EAE-9621-4513-9628-98B6C55CB8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="5760" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +161,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -234,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -290,12 +284,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,6 +313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +635,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +766,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -785,7 +776,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -794,10 +785,10 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="8"/>
@@ -822,9 +813,9 @@
       <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="27"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -835,14 +826,14 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -857,13 +848,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -879,7 +870,7 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -908,10 +899,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE2EAE-9621-4513-9628-98B6C55CB8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D528C3C-DE56-44E5-AA01-DDA49DEEDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -284,9 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,6 +319,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +644,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -766,7 +775,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -777,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -785,10 +794,10 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="8"/>
@@ -813,9 +822,9 @@
       <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="25"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -826,14 +835,14 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -854,7 +863,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -870,8 +879,8 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -895,14 +904,14 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="25"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D528C3C-DE56-44E5-AA01-DDA49DEEDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7D1C-464A-4681-A14E-22C78B89139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -299,12 +305,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,6 +325,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +650,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,8 +767,8 @@
         <v>6</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -775,7 +781,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -786,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -794,10 +800,10 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="8"/>
@@ -835,14 +841,16 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -879,8 +887,8 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -904,12 +912,12 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7D1C-464A-4681-A14E-22C78B89139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380450A5-1365-4FF7-8E65-99A6F39BB632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +167,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -240,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -328,9 +322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +641,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,8 +783,8 @@
         <v>7</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -816,8 +807,8 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380450A5-1365-4FF7-8E65-99A6F39BB632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA52E74-85D8-4C50-B8EA-597C3837B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -322,6 +328,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,7 +650,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -759,7 +768,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -856,7 +865,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA52E74-85D8-4C50-B8EA-597C3837B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57033989-6C9E-4B41-8435-8DB584F65B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -331,6 +331,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +653,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57033989-6C9E-4B41-8435-8DB584F65B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82024BB8-4830-410A-89CA-AE7CB0A8DC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -284,16 +278,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,19 +309,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +644,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,8 +729,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -763,15 +754,15 @@
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="20"/>
+      <c r="Y2" s="19"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -784,7 +775,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -794,19 +785,19 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="8"/>
@@ -819,8 +810,8 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -831,9 +822,9 @@
       <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="24"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -844,16 +835,16 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -868,13 +859,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -890,8 +881,8 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -915,12 +906,12 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82024BB8-4830-410A-89CA-AE7CB0A8DC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0A1B9-86D1-438D-9643-299BC3F86C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +318,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="33"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -762,8 +762,8 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="11"/>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -838,7 +838,7 @@
       <c r="B6" s="32">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -859,7 +859,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0A1B9-86D1-438D-9643-299BC3F86C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBD6E0-4B1E-468B-B4B8-A7201CF36242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -324,7 +324,13 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +650,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="35"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -763,9 +769,9 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="11"/>
       <c r="I3" s="9"/>
       <c r="J3" s="13"/>
@@ -788,7 +794,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -812,7 +818,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -839,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -883,7 +889,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBD6E0-4B1E-468B-B4B8-A7201CF36242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0AB75A-B627-43C0-AEDE-437AC3CDE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +795,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0AB75A-B627-43C0-AEDE-437AC3CDE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD705DF-C2BD-45CC-BD99-B409E4F6DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -284,9 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,28 +300,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +723,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -766,10 +754,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="11"/>
@@ -781,7 +769,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -791,19 +779,19 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="8"/>
@@ -816,9 +804,9 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -828,9 +816,9 @@
       <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -841,16 +829,18 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="31">
+        <v>8</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="8"/>
@@ -865,13 +855,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="8"/>
@@ -887,9 +877,9 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -912,12 +902,12 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD705DF-C2BD-45CC-BD99-B409E4F6DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389390D-87EA-40F6-A4B9-DEAB6AAE8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Предметы</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Зачет</t>
+  </si>
+  <si>
+    <t>30%(Табл. Word)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -228,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,9 +312,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,10 +321,19 @@
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +653,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +740,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -806,7 +821,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -829,13 +844,13 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>8</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -855,7 +870,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -878,8 +893,8 @@
         <v>2</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -922,6 +937,9 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="34">
+        <v>0.3</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -929,6 +947,9 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389390D-87EA-40F6-A4B9-DEAB6AAE8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A2FA0-D209-471C-BB64-FF31E1E9498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Предметы</t>
   </si>
@@ -36,9 +36,6 @@
     <t>РИС</t>
   </si>
   <si>
-    <t>ПвI</t>
-  </si>
-  <si>
     <t>ПМАиПЛ</t>
   </si>
   <si>
@@ -48,32 +45,35 @@
     <t>ОИАД</t>
   </si>
   <si>
-    <t>ЗИиНИС</t>
-  </si>
-  <si>
     <t>АИСиWП</t>
   </si>
   <si>
     <t>СП</t>
   </si>
   <si>
-    <t>ЗИиНИС курсач</t>
-  </si>
-  <si>
-    <t>БД курсач</t>
-  </si>
-  <si>
     <t>Зачет</t>
   </si>
   <si>
-    <t>30%(Табл. Word)</t>
+    <t>Защита</t>
+  </si>
+  <si>
+    <t>2. ЗИиНИС курсач</t>
+  </si>
+  <si>
+    <t>3. БД курсач</t>
+  </si>
+  <si>
+    <t>1. ЗИиНИС</t>
+  </si>
+  <si>
+    <t>4. ОПиПЧ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -171,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,11 +241,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -259,25 +278,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -287,28 +291,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,22 +303,62 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,12 +678,12 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
@@ -715,198 +740,164 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="6">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6">
-        <v>20</v>
-      </c>
-      <c r="V1" s="6">
-        <v>21</v>
-      </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="28"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="19"/>
+      <c r="Y2" s="14"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="28" t="s">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="21">
         <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27" t="s">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="D4" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="30">
-        <v>4</v>
-      </c>
-      <c r="C6" s="30">
-        <v>8</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35" t="s">
+        <v>1</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>8</v>
+      </c>
+      <c r="D8" s="18">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="18">
+        <v>8</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="37" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -915,46 +906,70 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0.3</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M18" s="3"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A2FA0-D209-471C-BB64-FF31E1E9498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38D816-7321-4AC3-BC7D-811FA0B7BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Предметы</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>4. ОПиПЧ</t>
+  </si>
+  <si>
+    <t>ПвI</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -359,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +684,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,52 +880,47 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18">
+        <v>14</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18">
-        <v>8</v>
-      </c>
-      <c r="E8" s="18">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18">
-        <v>8</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18">
+        <v>8</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -927,20 +928,17 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -949,23 +947,46 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="41"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K13" s="3"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38D816-7321-4AC3-BC7D-811FA0B7BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B19F9FF-A543-4E2D-86BF-FFB90DA2D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +684,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,57 +746,57 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="27"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="28"/>
+      <c r="V2" s="27"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="14"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="8"/>
@@ -806,27 +806,27 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>0.3</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="22" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="S5" s="8"/>
@@ -835,22 +835,22 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="8"/>
@@ -860,19 +860,19 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="11"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="28" t="s">
         <v>1</v>
       </c>
       <c r="R7" s="8"/>
@@ -882,14 +882,14 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="8"/>
@@ -899,24 +899,24 @@
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>8</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>6</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18">
+      <c r="F9" s="19"/>
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="8"/>
@@ -930,13 +930,13 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="8"/>
@@ -950,15 +950,15 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -973,11 +973,11 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="15" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B19F9FF-A543-4E2D-86BF-FFB90DA2D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE0C13-678E-42E3-8C53-48BC9C1B148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -365,6 +365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +687,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,8 +935,8 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
       <c r="H10" s="28" t="s">

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE0C13-678E-42E3-8C53-48BC9C1B148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB344AF3-1F79-4A49-B044-6BDFFA4B8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="2304" yWindow="540" windowWidth="15660" windowHeight="11820" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,20 +809,20 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>0.3</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="32"/>
@@ -892,7 +892,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="8"/>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="8"/>
@@ -935,7 +935,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="35"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -961,7 +961,7 @@
       <c r="G11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -979,7 +979,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="42"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="15" t="s">
         <v>1</v>
       </c>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB344AF3-1F79-4A49-B044-6BDFFA4B8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C132-8F21-4FCA-A09C-94D40E9A7FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="540" windowWidth="15660" windowHeight="11820" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Предметы</t>
   </si>
@@ -36,15 +36,9 @@
     <t>РИС</t>
   </si>
   <si>
-    <t>ПМАиПЛ</t>
-  </si>
-  <si>
     <t>АПвП</t>
   </si>
   <si>
-    <t>ОИАД</t>
-  </si>
-  <si>
     <t>АИСиWП</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>ПвI</t>
+  </si>
+  <si>
+    <t>5. ПМАиПЛ</t>
+  </si>
+  <si>
+    <t>6. ОИАД</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,19 +165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,9 +297,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +310,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,11 +329,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,13 +346,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +675,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,8 +747,8 @@
       <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+      <c r="A2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -768,203 +756,190 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="26"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="27"/>
+      <c r="V2" s="25"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17">
+        <v>7</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="21" t="s">
+      <c r="A5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="20"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34" t="s">
+      <c r="B6" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="19">
         <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="28" t="s">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="34">
         <v>1</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="40" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="26" t="s">
+        <v>1</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17">
-        <v>8</v>
-      </c>
-      <c r="E9" s="17">
+        <v>12</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17">
-        <v>8</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="36"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -979,7 +954,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="15" t="s">
         <v>1</v>
       </c>
@@ -990,10 +965,18 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M18" s="3"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955C132-8F21-4FCA-A09C-94D40E9A7FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70682C-9F95-42B7-968B-5C11600ED044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,9 +883,9 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="11"/>
       <c r="M8" s="9"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70682C-9F95-42B7-968B-5C11600ED044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC5C6B9-785E-4834-89FB-AADE83EEA733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Предметы</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>6. ОИАД</t>
+  </si>
+  <si>
+    <t>extern "C"</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -346,9 +355,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +684,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +833,7 @@
       <c r="H4" s="17">
         <v>7</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="8"/>
@@ -917,7 +926,9 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="32"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -935,8 +946,8 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="36"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC5C6B9-785E-4834-89FB-AADE83EEA733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC0F9A-2674-4F41-A5FF-726285CCD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -294,9 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +684,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,23 +765,23 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="28"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="20" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="24"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="25"/>
+      <c r="V2" s="24"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="13"/>
@@ -799,10 +799,10 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -812,55 +812,55 @@
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>4</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>8</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>6</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>5</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>8</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>7</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="19"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>0.3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="8"/>
@@ -870,13 +870,13 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>0.3</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="R7" s="8"/>
@@ -888,7 +888,7 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -898,7 +898,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="11"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="25" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="8"/>
@@ -908,14 +908,14 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>6</v>
       </c>
       <c r="R9" s="8"/>
@@ -926,13 +926,13 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="8"/>
@@ -946,11 +946,11 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="35"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -962,11 +962,11 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="41" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC0F9A-2674-4F41-A5FF-726285CCD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52139204-EED8-4BE1-9437-62B1598601C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>РИС</t>
-  </si>
-  <si>
     <t>АПвП</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>extern "C"</t>
+  </si>
+  <si>
+    <t>7. РИС</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +174,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -355,16 +349,13 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +675,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +748,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -788,7 +779,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -810,7 +801,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="16">
         <v>4</v>
@@ -834,14 +825,14 @@
         <v>7</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -851,128 +842,121 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="37" t="s">
         <v>1</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>7</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="33">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18">
         <v>0.3</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
+      <c r="D7" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="25" t="s">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="33">
         <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>6</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="36" t="s">
-        <v>6</v>
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="25" t="s">
+        <v>1</v>
       </c>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="D11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="35"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -981,6 +965,13 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52139204-EED8-4BE1-9437-62B1598601C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD9062-9F66-4CC8-ACD5-D34B68A5F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Предметы</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>АПвП</t>
-  </si>
-  <si>
-    <t>АИСиWП</t>
-  </si>
-  <si>
     <t>СП</t>
   </si>
   <si>
@@ -73,13 +67,19 @@
   </si>
   <si>
     <t>7. РИС</t>
+  </si>
+  <si>
+    <t>8. АПвП</t>
+  </si>
+  <si>
+    <t>9. АИСиWП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -256,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,48 +276,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,9 +335,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,10 +344,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +665,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,209 +727,200 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="24"/>
+      <c r="V2" s="23"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="13"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="16">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16">
-        <v>6</v>
-      </c>
-      <c r="F4" s="16">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16">
-        <v>8</v>
-      </c>
-      <c r="H4" s="16">
-        <v>7</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="27" t="s">
+        <v>1</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>8</v>
+      </c>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+      <c r="I5" s="35"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="37" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="38"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="18"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="35" t="s">
         <v>1</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>6</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="25" t="s">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="17">
         <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="36" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -948,37 +929,36 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M18" s="3"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD9062-9F66-4CC8-ACD5-D34B68A5F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC33DB-6431-4667-8FCE-33012960C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>6. ОИАД</t>
   </si>
   <si>
-    <t>extern "C"</t>
-  </si>
-  <si>
     <t>7. РИС</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>9. АИСиWП</t>
+  </si>
+  <si>
+    <t>Теория</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +170,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -254,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -324,10 +318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,17 +325,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +654,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +780,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -836,24 +825,24 @@
       <c r="H5" s="15">
         <v>7</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="32"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="33"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="28"/>
@@ -866,13 +855,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="R8" s="8"/>
@@ -897,13 +886,13 @@
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>0.3</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -916,8 +905,8 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="34" t="s">
         <v>3</v>
       </c>
@@ -931,10 +920,10 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="24" t="s">

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC33DB-6431-4667-8FCE-33012960C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55738C37-61D7-433B-BF14-2025BAE1866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Предметы</t>
   </si>
@@ -36,9 +36,6 @@
     <t>СП</t>
   </si>
   <si>
-    <t>Зачет</t>
-  </si>
-  <si>
     <t>Защита</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>4. ОПиПЧ</t>
   </si>
   <si>
-    <t>ПвI</t>
-  </si>
-  <si>
     <t>5. ПМАиПЛ</t>
   </si>
   <si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>Теория</t>
+  </si>
+  <si>
+    <t>10. ПвI</t>
   </si>
 </sst>
 </file>
@@ -160,13 +157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -267,9 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -331,10 +325,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +648,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,63 +710,63 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="22"/>
+      <c r="S2" s="21"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="23"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="12"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -780,134 +774,128 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="27" t="s">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="26"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>8</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>8</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>6</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>8</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>7</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="31"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="17"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="32"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="32" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="17"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="31"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16">
         <v>0.3</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>4</v>
+      <c r="D10" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="8"/>
@@ -918,15 +906,15 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>1</v>
       </c>
       <c r="O12" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55738C37-61D7-433B-BF14-2025BAE1866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FE8AF-86E9-4C3A-9BD5-295DFCCC2887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -145,12 +145,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -167,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -261,74 +261,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +648,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,63 +710,63 @@
       <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="17" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="21"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="22"/>
+      <c r="V2" s="21"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="11"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="8"/>
@@ -776,19 +776,19 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="26"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="24"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
@@ -796,42 +796,42 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>8</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>6</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>8</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>7</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="29"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="16"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
@@ -839,24 +839,24 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="30"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="16"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
@@ -864,24 +864,24 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="29"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -889,13 +889,13 @@
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>0.3</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="8"/>
@@ -906,15 +906,15 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="23" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
         <v>1</v>
       </c>
       <c r="O12" s="8"/>

--- a/3-2 labs.xlsx
+++ b/3-2 labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3\3-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FE8AF-86E9-4C3A-9BD5-295DFCCC2887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416CA5F-8B5F-4F04-8C2A-6D93612549E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CBCB977-0A19-4CE0-8F0F-0CE5EBE89482}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Предметы</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>СП</t>
-  </si>
-  <si>
-    <t>Защита</t>
-  </si>
-  <si>
     <t>2. ЗИиНИС курсач</t>
   </si>
   <si>
@@ -66,10 +60,10 @@
     <t>9. АИСиWП</t>
   </si>
   <si>
-    <t>Теория</t>
-  </si>
-  <si>
     <t>10. ПвI</t>
+  </si>
+  <si>
+    <t>11. СП</t>
   </si>
 </sst>
 </file>
@@ -136,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,26 +143,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,19 +187,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -245,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -283,11 +246,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,29 +269,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +593,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,7 +666,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -738,9 +683,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q2" s="16"/>
       <c r="R2" s="4"/>
       <c r="S2" s="20"/>
       <c r="T2" s="3"/>
@@ -752,7 +695,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -766,15 +709,13 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="N3" s="19"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -794,35 +735,21 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13">
-        <v>7</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="27"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -837,86 +764,81 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="8"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.3</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="D11" s="16"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34" t="s">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="15">
         <v>1</v>
       </c>
+      <c r="D12" s="16"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -929,7 +851,6 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
